--- a/project/utils/excelTemplate/project.xlsx
+++ b/project/utils/excelTemplate/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Python\STABackend\project\utils\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109ECCEA-E213-465D-BA22-E57930EAED5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399CD7A3-F250-496B-8F20-AC29D6247126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1848" windowWidth="17280" windowHeight="9072" xr2:uid="{C7AF1CC1-65D6-4215-AAE9-DE07BE5A6812}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C7AF1CC1-65D6-4215-AAE9-DE07BE5A6812}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>年度</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -47,9 +43,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>起止时间</t>
-  </si>
-  <si>
     <t>承担单位</t>
   </si>
   <si>
@@ -73,14 +66,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基于XXX研究</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021.01-2024.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成都理工大学</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -97,12 +82,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目1</t>
+    <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于XXX研究1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -154,27 +147,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -183,14 +161,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +488,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,81 +499,80 @@
     <col min="4" max="4" width="20.21875" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
         <v>2020</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>2021.01</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2022.01</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
